--- a/test_data/业务管理.xlsx
+++ b/test_data/业务管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12690" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="创建租户" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>编号</t>
   </si>
@@ -38,16 +38,31 @@
     <t>创建租户</t>
   </si>
   <si>
-    <t>测试创建租户</t>
+    <t>VC租户</t>
+  </si>
+  <si>
+    <t>OP租户</t>
+  </si>
+  <si>
+    <t>JKCS</t>
+  </si>
+  <si>
+    <t>测试编辑租户</t>
   </si>
   <si>
     <t>自动化测试</t>
   </si>
   <si>
-    <t>测试编辑租户</t>
-  </si>
-  <si>
-    <t>测试创建项目</t>
+    <t>tenantname</t>
+  </si>
+  <si>
+    <t>projectname</t>
+  </si>
+  <si>
+    <t>VC项目</t>
+  </si>
+  <si>
+    <t>OP项目</t>
   </si>
   <si>
     <t>测试编辑项目</t>
@@ -73,17 +88,39 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -96,84 +133,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,14 +156,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -203,29 +217,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,25 +263,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,19 +425,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,140 +447,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -434,26 +457,30 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,22 +489,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,17 +509,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,6 +552,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -539,149 +590,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -689,6 +740,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1039,13 +1099,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="15.75" customWidth="1"/>
@@ -1054,37 +1114,58 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1"/>
+    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
-      <c r="A3" s="1">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="b">
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1150,10 +1231,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="b">
         <v>1</v>
@@ -1176,33 +1257,49 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="1" max="1" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1238,10 +1335,10 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1255,14 +1352,14 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="11.375" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="40.375" customWidth="1"/>
     <col min="4" max="4" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1274,10 +1371,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1289,13 +1386,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/业务管理.xlsx
+++ b/test_data/业务管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690" activeTab="2"/>
+    <workbookView windowWidth="19890" windowHeight="7590" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="创建租户" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,15 @@
     <sheet name="创建项目" sheetId="3" r:id="rId3"/>
     <sheet name="编辑项目" sheetId="4" r:id="rId4"/>
     <sheet name="成员管理" sheetId="5" r:id="rId5"/>
+    <sheet name="删除项目" sheetId="6" r:id="rId6"/>
+    <sheet name="删除租户" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t>编号</t>
   </si>
@@ -47,10 +49,22 @@
     <t>JKCS</t>
   </si>
   <si>
-    <t>测试编辑租户</t>
-  </si>
-  <si>
-    <t>自动化测试</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>testcases</t>
+  </si>
+  <si>
+    <t>tenant</t>
+  </si>
+  <si>
+    <t>编辑租户</t>
+  </si>
+  <si>
+    <t>test租户1</t>
+  </si>
+  <si>
+    <t>编辑租户测试</t>
   </si>
   <si>
     <t>tenantname</t>
@@ -65,10 +79,19 @@
     <t>OP项目</t>
   </si>
   <si>
-    <t>测试编辑项目</t>
-  </si>
-  <si>
-    <t>userId</t>
+    <t>project</t>
+  </si>
+  <si>
+    <t>编辑项目</t>
+  </si>
+  <si>
+    <t>test项目1</t>
+  </si>
+  <si>
+    <t>编辑项目测试</t>
+  </si>
+  <si>
+    <t>account</t>
   </si>
   <si>
     <t>role</t>
@@ -77,10 +100,16 @@
     <t>添加成员</t>
   </si>
   <si>
-    <t>27b3700e-0d06-4199-b370-0e0d06b199b1</t>
+    <t>tester</t>
   </si>
   <si>
     <t>ROLE_ZHGLY</t>
+  </si>
+  <si>
+    <t>删除项目</t>
+  </si>
+  <si>
+    <t>删除租户</t>
   </si>
 </sst>
 </file>
@@ -111,6 +140,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -118,7 +161,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,9 +175,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,9 +215,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,99 +251,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,187 +292,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,25 +524,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,11 +564,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,17 +601,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,10 +619,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,153 +631,150 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1102,7 +1128,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A1" sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -1113,59 +1139,59 @@
     <col min="5" max="5" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:5">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:5">
-      <c r="A3" s="5">
+    <row r="2" s="3" customFormat="1" spans="1:5">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:5">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="b">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="b">
+      <c r="E4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1186,67 +1212,77 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="G1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="21.75" customWidth="1"/>
-    <col min="4" max="4" width="17.25" customWidth="1"/>
-    <col min="5" max="5" width="26.875" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="5" max="5" width="17.25" customWidth="1"/>
+    <col min="6" max="6" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" ht="14" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="b">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1259,8 +1295,8 @@
   <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -1270,36 +1306,35 @@
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:3">
+    <row r="2" s="3" customFormat="1" spans="1:3">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="4"/>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1311,37 +1346,71 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A1" sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
+    <row r="1" s="3" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
+    <row r="2" s="3" customFormat="1" spans="1:5">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:5">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1350,57 +1419,174 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A1" sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
-    <col min="3" max="3" width="40.375" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/test_data/业务管理.xlsx
+++ b/test_data/业务管理.xlsx
@@ -1546,7 +1546,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>

--- a/test_data/业务管理.xlsx
+++ b/test_data/业务管理.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t>编号</t>
   </si>
@@ -61,7 +61,7 @@
     <t>编辑租户</t>
   </si>
   <si>
-    <t>test租户1</t>
+    <t>编辑VC租户</t>
   </si>
   <si>
     <t>编辑租户测试</t>
@@ -85,7 +85,7 @@
     <t>编辑项目</t>
   </si>
   <si>
-    <t>test项目1</t>
+    <t>编辑VC项目</t>
   </si>
   <si>
     <t>编辑项目测试</t>
@@ -100,7 +100,7 @@
     <t>添加成员</t>
   </si>
   <si>
-    <t>tester</t>
+    <t>test_console</t>
   </si>
   <si>
     <t>ROLE_ZHGLY</t>
@@ -118,8 +118,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -140,12 +140,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -161,7 +184,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,23 +219,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,23 +245,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,13 +259,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -244,40 +276,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,12 +292,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -310,19 +328,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,31 +406,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,109 +454,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,15 +514,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -556,6 +547,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -566,7 +566,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,17 +611,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -619,10 +619,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,133 +631,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1128,7 +1128,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -1136,7 +1136,7 @@
     <col min="2" max="2" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="15.75" customWidth="1"/>
     <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:5">
@@ -1215,7 +1215,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="$A1:$XFD3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1263,7 +1263,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
@@ -1296,7 +1296,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -1349,14 +1349,14 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="14.125" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="14.375" customWidth="1"/>
     <col min="6" max="6" width="13.375" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
@@ -1394,7 +1394,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>21</v>
@@ -1422,7 +1422,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1490,16 +1490,16 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="30.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1527,6 +1527,17 @@
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1543,13 +1554,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="13.125" customWidth="1"/>
     <col min="3" max="3" width="14.875" customWidth="1"/>
@@ -1580,6 +1591,17 @@
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/业务管理.xlsx
+++ b/test_data/业务管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7590" activeTab="6"/>
+    <workbookView windowWidth="20700" windowHeight="8325" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="创建租户" sheetId="1" r:id="rId1"/>
@@ -117,9 +117,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -140,9 +140,130 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,130 +275,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,13 +292,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,19 +388,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,19 +436,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,121 +454,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,21 +515,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -548,7 +533,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,15 +573,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,17 +603,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,10 +619,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,133 +631,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1422,7 +1422,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1557,7 +1557,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>

--- a/test_data/业务管理.xlsx
+++ b/test_data/业务管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20700" windowHeight="8325" activeTab="6"/>
+    <workbookView windowWidth="20490" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="创建租户" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
   <si>
     <t>编号</t>
   </si>
@@ -117,9 +117,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -140,22 +140,83 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,100 +231,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -275,9 +253,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,37 +292,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,145 +466,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,15 +529,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -549,41 +540,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,6 +563,50 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -619,145 +619,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1212,13 +1212,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="19.625" customWidth="1"/>
@@ -1272,6 +1272,26 @@
         <v>14</v>
       </c>
       <c r="F3" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1296,7 +1316,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -1346,13 +1366,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="14.125" customWidth="1"/>
@@ -1400,6 +1420,23 @@
         <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1493,7 +1530,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -1526,7 +1563,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1556,8 +1593,8 @@
   <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -1590,7 +1627,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
